--- a/data/data_raw/eurostat/AT_cars_road_eqs_carpda.xlsx
+++ b/data/data_raw/eurostat/AT_cars_road_eqs_carpda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,50 +456,65 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -529,34 +544,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>4641308</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>4694921</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>4748048</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>4821557</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>4898578</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>4978852</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>5039548</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>5091827</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>5133836</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>5150890</v>
       </c>
     </row>
@@ -584,34 +602,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
         <v>2013748</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>2023336</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>2033924</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>2056715</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>2106473</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>2173325</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>2224880</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>2264561</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>2305984</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>2342409</v>
       </c>
     </row>
@@ -639,34 +660,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,34 +718,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>2621588</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>2663654</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>2703999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>2750383</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>2771925</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>2778795</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>2779026</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>2776651</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>2745471</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>2692682</v>
       </c>
     </row>
@@ -749,34 +776,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>2219</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>2397</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>2475</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>2457</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>2433</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>2365</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>2602</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>2753</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>2654</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>2564</v>
       </c>
     </row>
@@ -804,34 +834,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>2070</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>3386</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>5032</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>9073</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>14618</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>20831</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>29523</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>44507</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>76539</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>110225</v>
       </c>
     </row>
@@ -859,34 +892,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>5972</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>7931</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>10125</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>14459</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>20180</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>26732</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>35642</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>50615</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>82381</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>115799</v>
       </c>
     </row>
@@ -914,34 +950,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>2003699</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>2011104</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>2019139</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>2038019</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>2080434</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>2139239</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>2179235</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>2195578</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>2197006</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>2194125</v>
       </c>
     </row>
@@ -969,34 +1008,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
         <v>9664</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>11505</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>13327</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>16531</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>22290</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>28619</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>37897</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>54472</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>81745</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>109361</v>
       </c>
     </row>
@@ -1024,34 +1066,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
         <v>385</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>727</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>1458</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>2165</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>3749</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>5467</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>7748</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>14511</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>27233</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>38923</v>
       </c>
     </row>
@@ -1079,34 +1124,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
         <v>2621133</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>2663063</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>2702922</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>2749046</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>2770470</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>2776332</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>2772854</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>2762273</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>2717475</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>2651280</v>
       </c>
     </row>
@@ -1134,34 +1182,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>432</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>542</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>1028</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>1224</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>1268</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>2220</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>5878</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>13652</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>26208</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>38745</v>
       </c>
     </row>
@@ -1189,34 +1240,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
         <v>23</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>49</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>49</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>113</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>187</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>243</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>294</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>726</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>1788</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>2657</v>
       </c>
     </row>
@@ -1244,34 +1298,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>13</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>19</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>24</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>41</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>45</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
         <v>55</v>
       </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1308,7 +1365,10 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1405,10 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,34 +1436,37 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>1682</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>2144</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>2611</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>2915</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>3108</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>3510</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>3474</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>3308</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>3132</v>
       </c>
-      <c r="O18" t="n">
+      <c r="R18" t="n">
         <v>2947</v>
       </c>
     </row>
@@ -1428,15 +1494,9 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -1456,6 +1516,15 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/data_raw/eurostat/AT_cars_road_eqs_carpda.xlsx
+++ b/data/data_raw/eurostat/AT_cars_road_eqs_carpda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -577,6 +582,9 @@
       <c r="R2" t="n">
         <v>5150890</v>
       </c>
+      <c r="S2" t="n">
+        <v>5185006</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -635,6 +643,9 @@
       <c r="R3" t="n">
         <v>2342409</v>
       </c>
+      <c r="S3" t="n">
+        <v>2383807</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -693,6 +704,9 @@
       <c r="R4" t="n">
         <v>1</v>
       </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -751,6 +765,9 @@
       <c r="R5" t="n">
         <v>2692682</v>
       </c>
+      <c r="S5" t="n">
+        <v>2640528</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -768,7 +785,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Natural Gas [GAS]</t>
+          <t>Natural gas [GAS]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -809,6 +826,9 @@
       <c r="R6" t="n">
         <v>2564</v>
       </c>
+      <c r="S6" t="n">
+        <v>2342</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -867,6 +887,9 @@
       <c r="R7" t="n">
         <v>110225</v>
       </c>
+      <c r="S7" t="n">
+        <v>155490</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -925,6 +948,9 @@
       <c r="R8" t="n">
         <v>115799</v>
       </c>
+      <c r="S8" t="n">
+        <v>160671</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -983,6 +1009,9 @@
       <c r="R9" t="n">
         <v>2194125</v>
       </c>
+      <c r="S9" t="n">
+        <v>2188368</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1041,6 +1070,9 @@
       <c r="R10" t="n">
         <v>109361</v>
       </c>
+      <c r="S10" t="n">
+        <v>141980</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1099,6 +1131,9 @@
       <c r="R11" t="n">
         <v>38923</v>
       </c>
+      <c r="S11" t="n">
+        <v>53459</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1157,6 +1192,9 @@
       <c r="R12" t="n">
         <v>2651280</v>
       </c>
+      <c r="S12" t="n">
+        <v>2584985</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1215,6 +1253,9 @@
       <c r="R13" t="n">
         <v>38745</v>
       </c>
+      <c r="S13" t="n">
+        <v>52138</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1273,6 +1314,9 @@
       <c r="R14" t="n">
         <v>2657</v>
       </c>
+      <c r="S14" t="n">
+        <v>3405</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1331,6 +1375,9 @@
       <c r="R15" t="n">
         <v>62</v>
       </c>
+      <c r="S15" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1359,7 +1406,9 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1371,6 +1420,9 @@
       <c r="R16" t="n">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1399,7 +1451,9 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1411,6 +1465,9 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1469,6 +1526,9 @@
       <c r="R18" t="n">
         <v>2947</v>
       </c>
+      <c r="S18" t="n">
+        <v>2771</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1527,6 +1587,9 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_cars_road_eqs_carpda.xlsx
+++ b/data/data_raw/eurostat/AT_cars_road_eqs_carpda.xlsx
@@ -907,7 +907,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Alternative Energy [ALT]</t>
+          <t>Alternative energy [ALT]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
